--- a/Docs/ProjectAssignment3.xlsx
+++ b/Docs/ProjectAssignment3.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -90,6 +90,9 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
     <font>
       <color theme="1"/>
@@ -123,13 +126,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -138,13 +141,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,18 +397,22 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4">
+      <c r="B2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="5">
         <v>2.0</v>
       </c>
     </row>
@@ -413,18 +420,22 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4">
+      <c r="B3" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C3" s="5">
         <v>4.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>6.0</v>
       </c>
-      <c r="E3" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4">
+      <c r="E3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="5">
         <v>5.0</v>
       </c>
     </row>
@@ -432,18 +443,22 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4">
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="5">
         <v>3.0</v>
       </c>
     </row>
@@ -451,18 +466,22 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4">
+      <c r="B5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="5">
         <v>4.0</v>
       </c>
     </row>
@@ -470,18 +489,22 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4">
+      <c r="B6" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C6" s="5">
         <v>9.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>10.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>7.0</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
+      <c r="F6" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G6" s="5">
         <v>8.0</v>
       </c>
     </row>
@@ -489,18 +512,22 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
+      <c r="B7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="5">
         <v>2.0</v>
       </c>
     </row>
@@ -508,18 +535,22 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4">
+      <c r="B8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="5">
         <v>2.0</v>
       </c>
     </row>
@@ -527,18 +558,22 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
+      <c r="B9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="5">
         <v>3.0</v>
       </c>
     </row>
@@ -546,18 +581,22 @@
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
+      <c r="B10" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G10" s="5">
         <v>5.0</v>
       </c>
     </row>
@@ -565,18 +604,22 @@
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="5">
         <v>12.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>10.0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>8.0</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
+      <c r="F11" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G11" s="5">
         <v>10.0</v>
       </c>
     </row>
@@ -584,18 +627,22 @@
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4">
+      <c r="B12" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="5">
         <v>5.0</v>
       </c>
     </row>
@@ -605,7 +652,7 @@
       </c>
       <c r="B13" s="10">
         <f t="shared" ref="B13:F13" si="1">SUM(B2:B12)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="1"/>
@@ -621,7 +668,7 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G13" s="11">
         <f> SUM(G2:G12)</f>
